--- a/7690305_ValidateImpliedYield_FTC.xlsx
+++ b/7690305_ValidateImpliedYield_FTC.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ria_gupta\Desktop\FTC_Amazon\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8897D450-A0C7-4269-8F22-2E61DC68233D}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F9B3601-C6E6-4E34-A809-8167DDADA175}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" activeTab="1" xr2:uid="{FCC2F1D4-11F3-4F4C-AFF5-A6741E257767}"/>
   </bookViews>
@@ -1365,9 +1365,6 @@
     <t>Story ID</t>
   </si>
   <si>
-    <t>Sno.</t>
-  </si>
-  <si>
     <t>Scenarios</t>
   </si>
   <si>
@@ -1549,6 +1546,9 @@
   <si>
     <t>i) Restructure a lease with Implied Yield more than 35% when it is in the Funding /Document Approval step while restructing it.
 ii) Click the Commence workflow button</t>
+  </si>
+  <si>
+    <t>Scenario No.</t>
   </si>
 </sst>
 </file>
@@ -2208,14 +2208,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6EC1193D-2FBF-4509-A37F-922492C2E6F5}">
   <dimension ref="A2:F35"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="87" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+    <sheetView tabSelected="1" zoomScale="86" zoomScaleNormal="86" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="10.453125" style="10" customWidth="1"/>
-    <col min="2" max="2" width="19.54296875" style="10" customWidth="1"/>
+    <col min="1" max="1" width="19.54296875" style="10" customWidth="1"/>
+    <col min="2" max="2" width="10.453125" style="10" customWidth="1"/>
     <col min="3" max="3" width="53.26953125" style="10" customWidth="1"/>
     <col min="4" max="4" width="47.54296875" style="10" customWidth="1"/>
     <col min="5" max="5" width="31.1796875" style="10" customWidth="1"/>
@@ -2225,516 +2225,516 @@
   <sheetData>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="15" t="s">
+        <v>70</v>
+      </c>
+      <c r="C2" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="B2" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="15" t="s">
+      <c r="D2" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="D2" s="15" t="s">
+      <c r="E2" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="E2" s="15" t="s">
+      <c r="F2" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="F2" s="15" t="s">
+    </row>
+    <row r="3" spans="1:6" ht="39" x14ac:dyDescent="0.35">
+      <c r="A3" s="19" t="s">
+        <v>35</v>
+      </c>
+      <c r="B3" s="12">
+        <v>1</v>
+      </c>
+      <c r="C3" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D3" s="11" t="s">
         <v>24</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" ht="39" x14ac:dyDescent="0.35">
-      <c r="A3" s="12">
-        <v>1</v>
-      </c>
-      <c r="B3" s="19" t="s">
-        <v>36</v>
-      </c>
-      <c r="C3" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="D3" s="11" t="s">
-        <v>25</v>
       </c>
       <c r="E3" s="11"/>
       <c r="F3" s="11"/>
     </row>
     <row r="4" spans="1:6" ht="39" x14ac:dyDescent="0.35">
-      <c r="A4" s="12">
+      <c r="A4" s="19"/>
+      <c r="B4" s="12">
         <v>2</v>
       </c>
-      <c r="B4" s="19"/>
       <c r="C4" s="11" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D4" s="11" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E4" s="11"/>
       <c r="F4" s="11"/>
     </row>
     <row r="5" spans="1:6" ht="39" x14ac:dyDescent="0.35">
-      <c r="A5" s="12">
+      <c r="A5" s="19"/>
+      <c r="B5" s="12">
         <v>3</v>
       </c>
-      <c r="B5" s="19"/>
       <c r="C5" s="11" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D5" s="11" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E5" s="11"/>
       <c r="F5" s="11"/>
     </row>
     <row r="6" spans="1:6" ht="39" x14ac:dyDescent="0.35">
-      <c r="A6" s="12">
+      <c r="A6" s="19"/>
+      <c r="B6" s="12">
         <v>4</v>
       </c>
-      <c r="B6" s="19"/>
       <c r="C6" s="11" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D6" s="11" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E6" s="11"/>
       <c r="F6" s="11"/>
     </row>
     <row r="7" spans="1:6" ht="39" x14ac:dyDescent="0.35">
-      <c r="A7" s="12">
+      <c r="A7" s="19"/>
+      <c r="B7" s="12">
         <v>5</v>
       </c>
-      <c r="B7" s="19"/>
       <c r="C7" s="11" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D7" s="11" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E7" s="11"/>
       <c r="F7" s="11"/>
     </row>
     <row r="8" spans="1:6" ht="39" x14ac:dyDescent="0.35">
-      <c r="A8" s="12">
+      <c r="A8" s="19"/>
+      <c r="B8" s="12">
         <v>6</v>
       </c>
-      <c r="B8" s="19"/>
       <c r="C8" s="11" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D8" s="11" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E8" s="11"/>
       <c r="F8" s="11"/>
     </row>
     <row r="9" spans="1:6" ht="39" x14ac:dyDescent="0.35">
-      <c r="A9" s="12">
+      <c r="A9" s="19" t="s">
+        <v>36</v>
+      </c>
+      <c r="B9" s="12">
         <v>7</v>
       </c>
-      <c r="B9" s="19" t="s">
-        <v>37</v>
-      </c>
       <c r="C9" s="11" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D9" s="11" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E9" s="11"/>
       <c r="F9" s="11"/>
     </row>
     <row r="10" spans="1:6" ht="39" x14ac:dyDescent="0.35">
-      <c r="A10" s="14">
+      <c r="A10" s="19"/>
+      <c r="B10" s="14">
         <v>8</v>
       </c>
-      <c r="B10" s="19"/>
       <c r="C10" s="11" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D10" s="11" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E10" s="13"/>
       <c r="F10" s="13"/>
     </row>
     <row r="11" spans="1:6" ht="39" x14ac:dyDescent="0.35">
-      <c r="A11" s="14">
+      <c r="A11" s="19"/>
+      <c r="B11" s="14">
         <v>9</v>
       </c>
-      <c r="B11" s="19"/>
       <c r="C11" s="11" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D11" s="11" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E11" s="13"/>
       <c r="F11" s="13"/>
     </row>
     <row r="12" spans="1:6" ht="39" x14ac:dyDescent="0.35">
-      <c r="A12" s="14">
+      <c r="A12" s="18" t="s">
+        <v>37</v>
+      </c>
+      <c r="B12" s="14">
         <v>10</v>
       </c>
-      <c r="B12" s="18" t="s">
-        <v>38</v>
-      </c>
       <c r="C12" s="11" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D12" s="11" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E12" s="13"/>
       <c r="F12" s="13"/>
     </row>
     <row r="13" spans="1:6" ht="39" x14ac:dyDescent="0.35">
-      <c r="A13" s="14">
+      <c r="A13" s="18"/>
+      <c r="B13" s="14">
         <v>12</v>
       </c>
-      <c r="B13" s="18"/>
       <c r="C13" s="11" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D13" s="11" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E13" s="13"/>
       <c r="F13" s="13"/>
     </row>
     <row r="14" spans="1:6" ht="39" x14ac:dyDescent="0.35">
-      <c r="A14" s="14">
+      <c r="A14" s="18"/>
+      <c r="B14" s="14">
         <v>14</v>
       </c>
-      <c r="B14" s="18"/>
       <c r="C14" s="11" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D14" s="11" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E14" s="13"/>
       <c r="F14" s="13"/>
     </row>
     <row r="15" spans="1:6" ht="39" x14ac:dyDescent="0.35">
-      <c r="A15" s="14">
+      <c r="A15" s="18"/>
+      <c r="B15" s="14">
         <v>16</v>
       </c>
-      <c r="B15" s="18"/>
       <c r="C15" s="11" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D15" s="11" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E15" s="13"/>
       <c r="F15" s="13"/>
     </row>
     <row r="16" spans="1:6" ht="39" x14ac:dyDescent="0.35">
-      <c r="A16" s="14">
+      <c r="A16" s="18"/>
+      <c r="B16" s="14">
         <v>18</v>
       </c>
-      <c r="B16" s="18"/>
       <c r="C16" s="11" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D16" s="11" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E16" s="13"/>
       <c r="F16" s="13"/>
     </row>
     <row r="17" spans="1:6" ht="39" x14ac:dyDescent="0.35">
-      <c r="A17" s="14">
+      <c r="A17" s="18"/>
+      <c r="B17" s="14">
         <v>20</v>
       </c>
-      <c r="B17" s="18"/>
       <c r="C17" s="11" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D17" s="11" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E17" s="13"/>
       <c r="F17" s="13"/>
     </row>
     <row r="18" spans="1:6" ht="39" x14ac:dyDescent="0.35">
-      <c r="A18" s="14">
+      <c r="A18" s="18" t="s">
+        <v>38</v>
+      </c>
+      <c r="B18" s="14">
         <v>22</v>
       </c>
-      <c r="B18" s="18" t="s">
+      <c r="C18" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="C18" s="11" t="s">
-        <v>40</v>
-      </c>
       <c r="D18" s="11" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E18" s="13"/>
       <c r="F18" s="13"/>
     </row>
     <row r="19" spans="1:6" ht="52" x14ac:dyDescent="0.35">
-      <c r="A19" s="14">
+      <c r="A19" s="18"/>
+      <c r="B19" s="14">
         <v>23</v>
       </c>
-      <c r="B19" s="18"/>
       <c r="C19" s="11" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D19" s="11" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E19" s="13"/>
       <c r="F19" s="13"/>
     </row>
     <row r="20" spans="1:6" ht="52" x14ac:dyDescent="0.35">
-      <c r="A20" s="14">
+      <c r="A20" s="18"/>
+      <c r="B20" s="14">
         <v>24</v>
       </c>
-      <c r="B20" s="18"/>
       <c r="C20" s="11" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D20" s="11" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E20" s="13"/>
       <c r="F20" s="13"/>
     </row>
     <row r="21" spans="1:6" ht="39" x14ac:dyDescent="0.35">
-      <c r="A21" s="14">
+      <c r="A21" s="18" t="s">
+        <v>42</v>
+      </c>
+      <c r="B21" s="14">
         <v>25</v>
       </c>
-      <c r="B21" s="18" t="s">
+      <c r="C21" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="C21" s="11" t="s">
-        <v>44</v>
-      </c>
       <c r="D21" s="11" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E21" s="13"/>
       <c r="F21" s="13"/>
     </row>
     <row r="22" spans="1:6" ht="39" x14ac:dyDescent="0.35">
-      <c r="A22" s="14">
+      <c r="A22" s="18"/>
+      <c r="B22" s="14">
         <v>26</v>
       </c>
-      <c r="B22" s="18"/>
       <c r="C22" s="11" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D22" s="11" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E22" s="13"/>
       <c r="F22" s="13"/>
     </row>
     <row r="23" spans="1:6" ht="39" x14ac:dyDescent="0.35">
-      <c r="A23" s="14">
+      <c r="A23" s="18"/>
+      <c r="B23" s="14">
         <v>27</v>
       </c>
-      <c r="B23" s="18"/>
       <c r="C23" s="11" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D23" s="11" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E23" s="13"/>
       <c r="F23" s="13"/>
     </row>
     <row r="24" spans="1:6" ht="39" x14ac:dyDescent="0.35">
-      <c r="A24" s="14">
+      <c r="A24" s="18"/>
+      <c r="B24" s="14">
         <v>28</v>
       </c>
-      <c r="B24" s="18"/>
       <c r="C24" s="11" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D24" s="11" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E24" s="13"/>
       <c r="F24" s="13"/>
     </row>
     <row r="25" spans="1:6" ht="39" x14ac:dyDescent="0.35">
-      <c r="A25" s="14">
+      <c r="A25" s="18"/>
+      <c r="B25" s="14">
         <v>29</v>
       </c>
-      <c r="B25" s="18"/>
       <c r="C25" s="11" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D25" s="11" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E25" s="13"/>
       <c r="F25" s="13"/>
     </row>
     <row r="26" spans="1:6" ht="39" x14ac:dyDescent="0.35">
-      <c r="A26" s="14">
+      <c r="A26" s="18"/>
+      <c r="B26" s="14">
         <v>30</v>
       </c>
-      <c r="B26" s="18"/>
       <c r="C26" s="11" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D26" s="11" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E26" s="13"/>
       <c r="F26" s="13"/>
     </row>
     <row r="27" spans="1:6" ht="39" x14ac:dyDescent="0.35">
-      <c r="A27" s="14">
+      <c r="A27" s="18" t="s">
+        <v>49</v>
+      </c>
+      <c r="B27" s="14">
         <v>31</v>
       </c>
-      <c r="B27" s="18" t="s">
+      <c r="C27" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="C27" s="11" t="s">
-        <v>51</v>
-      </c>
       <c r="D27" s="11" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E27" s="13"/>
       <c r="F27" s="13"/>
     </row>
     <row r="28" spans="1:6" ht="39" x14ac:dyDescent="0.35">
-      <c r="A28" s="14">
+      <c r="A28" s="18"/>
+      <c r="B28" s="14">
         <v>32</v>
       </c>
-      <c r="B28" s="18"/>
       <c r="C28" s="11" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D28" s="11" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E28" s="13"/>
       <c r="F28" s="13"/>
     </row>
     <row r="29" spans="1:6" ht="39" x14ac:dyDescent="0.35">
-      <c r="A29" s="14">
+      <c r="A29" s="18"/>
+      <c r="B29" s="14">
         <v>33</v>
       </c>
-      <c r="B29" s="18"/>
       <c r="C29" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="D29" s="11" t="s">
         <v>53</v>
-      </c>
-      <c r="D29" s="11" t="s">
-        <v>54</v>
       </c>
       <c r="E29" s="13"/>
       <c r="F29" s="13"/>
     </row>
     <row r="30" spans="1:6" ht="39" x14ac:dyDescent="0.35">
-      <c r="A30" s="14">
+      <c r="A30" s="18" t="s">
+        <v>54</v>
+      </c>
+      <c r="B30" s="14">
         <v>34</v>
       </c>
-      <c r="B30" s="18" t="s">
-        <v>55</v>
-      </c>
       <c r="C30" s="11" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D30" s="11" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E30" s="13"/>
       <c r="F30" s="13"/>
     </row>
     <row r="31" spans="1:6" ht="39" x14ac:dyDescent="0.35">
-      <c r="A31" s="14">
+      <c r="A31" s="18"/>
+      <c r="B31" s="14">
         <v>35</v>
       </c>
-      <c r="B31" s="18"/>
       <c r="C31" s="11" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D31" s="11" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E31" s="13"/>
       <c r="F31" s="13"/>
     </row>
     <row r="32" spans="1:6" ht="39" x14ac:dyDescent="0.35">
-      <c r="A32" s="14">
+      <c r="A32" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="B32" s="14">
         <v>36</v>
       </c>
-      <c r="B32" s="14" t="s">
-        <v>56</v>
-      </c>
       <c r="C32" s="11" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D32" s="11" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E32" s="13"/>
       <c r="F32" s="13"/>
     </row>
     <row r="33" spans="1:6" ht="39" x14ac:dyDescent="0.35">
-      <c r="A33" s="14">
+      <c r="A33" s="18" t="s">
+        <v>56</v>
+      </c>
+      <c r="B33" s="14">
         <v>37</v>
       </c>
-      <c r="B33" s="18" t="s">
-        <v>57</v>
-      </c>
       <c r="C33" s="11" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D33" s="11" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E33" s="13"/>
       <c r="F33" s="13"/>
     </row>
     <row r="34" spans="1:6" ht="39" x14ac:dyDescent="0.35">
-      <c r="A34" s="14">
+      <c r="A34" s="18"/>
+      <c r="B34" s="14">
         <v>38</v>
       </c>
-      <c r="B34" s="18"/>
       <c r="C34" s="11" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D34" s="11" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E34" s="13"/>
       <c r="F34" s="13"/>
     </row>
     <row r="35" spans="1:6" ht="39" x14ac:dyDescent="0.35">
-      <c r="A35" s="14">
+      <c r="A35" s="14" t="s">
+        <v>62</v>
+      </c>
+      <c r="B35" s="14">
         <v>39</v>
       </c>
-      <c r="B35" s="14" t="s">
+      <c r="C35" s="11" t="s">
         <v>63</v>
       </c>
-      <c r="C35" s="11" t="s">
-        <v>64</v>
-      </c>
       <c r="D35" s="11" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E35" s="13"/>
       <c r="F35" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="8">
-    <mergeCell ref="B21:B26"/>
-    <mergeCell ref="B27:B29"/>
-    <mergeCell ref="B30:B31"/>
-    <mergeCell ref="B33:B34"/>
-    <mergeCell ref="B3:B8"/>
-    <mergeCell ref="B9:B11"/>
-    <mergeCell ref="B18:B20"/>
-    <mergeCell ref="B12:B17"/>
+    <mergeCell ref="A21:A26"/>
+    <mergeCell ref="A27:A29"/>
+    <mergeCell ref="A30:A31"/>
+    <mergeCell ref="A33:A34"/>
+    <mergeCell ref="A3:A8"/>
+    <mergeCell ref="A9:A11"/>
+    <mergeCell ref="A18:A20"/>
+    <mergeCell ref="A12:A17"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
